--- a/biology/Médecine/Société_québécoise_d'histoire_de_la_pharmacie/Société_québécoise_d'histoire_de_la_pharmacie.xlsx
+++ b/biology/Médecine/Société_québécoise_d'histoire_de_la_pharmacie/Société_québécoise_d'histoire_de_la_pharmacie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_qu%C3%A9b%C3%A9coise_d%27histoire_de_la_pharmacie</t>
+          <t>Société_québécoise_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société québécoise d’histoire de la pharmacie (SQHP) a été fondée en octobre 2012, à Québec.  
 Son objectif est de faire découvrir au grand public comme aux étudiants, aux historiens et aux gens des professions de santé, tout ce qui a marqué l’évolution de la pharmacie au Québec. 
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_qu%C3%A9b%C3%A9coise_d%27histoire_de_la_pharmacie</t>
+          <t>Société_québécoise_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,13 +530,15 @@
           <t>Membres fondateurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gilles Barbeau, professeur émérite de pharmacie, doyen retraité de la Faculté de pharmacie de l’Université Laval, Ville de Québec
 Jean Lefebvre, pharmacien, professeur agrégé et doyen de la Faculté de pharmacie de l’Université Laval, Ville de Québec
 Jacques Mathieu, historien, professeur émérite et doyen retraité de la Faculté des Lettres et des sciences humaines de l’Université Laval, Ville de Québec
 Juliette Delrieu, historienne, archiviste
-Suzette Mathieu, retraitée[1],[2],</t>
+Suzette Mathieu, retraitée</t>
         </is>
       </c>
     </row>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_qu%C3%A9b%C3%A9coise_d%27histoire_de_la_pharmacie</t>
+          <t>Société_québécoise_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La collection de la Société québécoise d'histoire de la pharmacie compte, en 2018, plus de 3700 objets, archives et imprimés (19e et 20e siècles) utiles à l'histoire de la pharmacie du Québec et à sa compréhension. La gestion de cette collection s'appuie sur les normes de gestion des collections de la SMQ.
 </t>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_qu%C3%A9b%C3%A9coise_d%27histoire_de_la_pharmacie</t>
+          <t>Société_québécoise_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,10 +599,12 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2017 : 1617-2017: L'héritage de Louis Hébert.400 ans de pharmacie au Québec, Université Laval, Ville de Québec, Bibliothèque de l'Université Laval, Pavillon Jean-Charles-Bonenfant et Pavillon Alexandre-Vachon, salle Alcan, du 19 avril 2017 au 23 mars 2018[3],[4].
-2013 : Edmond Giroux (1838-1905) pharmacien, figure illustre d'une dynastie de pharmaciens québécois. Faculté de pharmacie de l’Université Laval, Ville de Québec, Semaine de la culture, 22-29 septembre 2013[5]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2017 : 1617-2017: L'héritage de Louis Hébert.400 ans de pharmacie au Québec, Université Laval, Ville de Québec, Bibliothèque de l'Université Laval, Pavillon Jean-Charles-Bonenfant et Pavillon Alexandre-Vachon, salle Alcan, du 19 avril 2017 au 23 mars 2018,.
+2013 : Edmond Giroux (1838-1905) pharmacien, figure illustre d'une dynastie de pharmaciens québécois. Faculté de pharmacie de l’Université Laval, Ville de Québec, Semaine de la culture, 22-29 septembre 2013</t>
         </is>
       </c>
     </row>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_qu%C3%A9b%C3%A9coise_d%27histoire_de_la_pharmacie</t>
+          <t>Société_québécoise_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,9 +632,11 @@
           <t>Publications de la SQHP</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Pharmacopolis, première revue québécoise d’histoire de la pharmacie[6]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pharmacopolis, première revue québécoise d’histoire de la pharmacie
 Pharmacopolis, n°1, 2014, 55 p.
 Pharmacopolis, n°2, 2015, 60 p.
 Pharmacopolis, n°3, 2016, 48 p.
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_qu%C3%A9b%C3%A9coise_d%27histoire_de_la_pharmacie</t>
+          <t>Société_québécoise_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,9 +669,11 @@
           <t>Symposium Louis Hébert</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 31 mai 2017, à l’occasion du 400e anniversaire de l’arrivée de Louis Hébert et de Marie Rollet à Québec, la Société québécoise d’histoire de la pharmacie organise, en collaboration avec la Commission Franco-Québécoise sur les Lieux de Mémoire Commun],  à l’Université Laval, au pavillon Alphonse-Desjardins, le "Symposium Louis Hébert, apothicaire en Nouvelle-France"[7] afin d'honorer la mémoire de cet apothicaire et de Marie Rollet, son épouse, qui sont considérés comme les premiers colons français du Canada et de la Nouvelle-France.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 31 mai 2017, à l’occasion du 400e anniversaire de l’arrivée de Louis Hébert et de Marie Rollet à Québec, la Société québécoise d’histoire de la pharmacie organise, en collaboration avec la Commission Franco-Québécoise sur les Lieux de Mémoire Commun],  à l’Université Laval, au pavillon Alphonse-Desjardins, le "Symposium Louis Hébert, apothicaire en Nouvelle-France" afin d'honorer la mémoire de cet apothicaire et de Marie Rollet, son épouse, qui sont considérés comme les premiers colons français du Canada et de la Nouvelle-France.
 </t>
         </is>
       </c>
@@ -662,7 +684,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_qu%C3%A9b%C3%A9coise_d%27histoire_de_la_pharmacie</t>
+          <t>Société_québécoise_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -680,9 +702,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Prix d'excellence Léonidas-Bélanger - Édition 2015 catégorie "Réalisation-Événement" (3e prix) pour l'exposition "Edmond Giroux (1837-1905) pharmacien, figure illustre d'une dynastie de pharmaciens québécois", Fédération Histoire Québec, Rivière-du-Loup,16 mai 2015[8].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix d'excellence Léonidas-Bélanger - Édition 2015 catégorie "Réalisation-Événement" (3e prix) pour l'exposition "Edmond Giroux (1837-1905) pharmacien, figure illustre d'une dynastie de pharmaciens québécois", Fédération Histoire Québec, Rivière-du-Loup,16 mai 2015.</t>
         </is>
       </c>
     </row>
